--- a/public/templates/template-import-data-siswa.xlsx
+++ b/public/templates/template-import-data-siswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\si_akademik\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEF2AC2-D308-4EB8-BBD3-0AE7F8A24110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB478BF-01FD-402D-ADFD-097B682616CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Jenis Kelamin</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Nama Siswa</t>
+  </si>
+  <si>
+    <t>Kelas</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34186BEB-4E21-4793-B21F-155B5A8A690A}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -457,7 +460,7 @@
     <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -478,6 +481,9 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
